--- a/Planeacion del Trabajo/Giroplas_Matriz de responsabilidades.xlsx
+++ b/Planeacion del Trabajo/Giroplas_Matriz de responsabilidades.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="195" windowWidth="20730" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="192" windowWidth="16608" windowHeight="9432" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="identificacion " sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="116">
   <si>
     <t>Administrador de proyecto</t>
   </si>
@@ -357,6 +357,51 @@
   </si>
   <si>
     <t>1.Planeación</t>
+  </si>
+  <si>
+    <t>url para la ubicación en el repositorio</t>
+  </si>
+  <si>
+    <r>
+      <t>Giroplas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF767676"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4078C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Planeacion del Trabajo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF767676"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Giroplas_Matriz de responsabilidades.xlsx</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -366,7 +411,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,6 +525,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF4078C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF767676"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4078C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -657,7 +728,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -707,6 +778,45 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -716,45 +826,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Énfasis5" xfId="4" builtinId="47"/>
@@ -1170,36 +1249,36 @@
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="19"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="32"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>76</v>
       </c>
@@ -1207,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>77</v>
       </c>
@@ -1215,7 +1294,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>78</v>
       </c>
@@ -1223,7 +1302,7 @@
         <v>42145</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>79</v>
       </c>
@@ -1231,7 +1310,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>80</v>
       </c>
@@ -1239,23 +1318,23 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>81</v>
       </c>
       <c r="B14" s="16"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="20"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="33"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>83</v>
       </c>
@@ -1263,7 +1342,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>63</v>
       </c>
@@ -1271,25 +1350,25 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="20"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="33"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>83</v>
       </c>
@@ -1297,7 +1376,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>63</v>
       </c>
@@ -1305,11 +1384,11 @@
         <v>42147</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
     </row>
@@ -1321,18 +1400,18 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>76</v>
       </c>
@@ -1360,22 +1439,22 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
     </row>
     <row r="39" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
@@ -1383,23 +1462,23 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="34"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="34"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="34"/>
       <c r="B42" s="17"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="34"/>
+    </row>
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>91</v>
       </c>
@@ -1407,7 +1486,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>92</v>
       </c>
@@ -1415,7 +1494,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>78</v>
       </c>
@@ -1423,7 +1502,7 @@
         <v>42147</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>79</v>
       </c>
@@ -1431,7 +1510,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>80</v>
       </c>
@@ -1439,21 +1518,21 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>76</v>
       </c>
@@ -1467,19 +1546,19 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="16"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -1507,26 +1586,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="65.44140625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="11" max="11" width="33.28515625" customWidth="1"/>
+    <col min="11" max="11" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1545,12 +1624,18 @@
       <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="J1" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="4" t="s">
         <v>63</v>
       </c>
@@ -1570,23 +1655,23 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:13" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34"/>
-    </row>
-    <row r="4" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="30" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1605,16 +1690,16 @@
       <c r="H4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="33"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="K4" s="36"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1640,11 +1725,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1670,11 +1755,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1700,11 +1785,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1730,11 +1815,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1760,23 +1845,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="32" t="s">
+    <row r="10" spans="1:13" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
-    </row>
-    <row r="11" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1796,11 +1881,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1820,11 +1905,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1844,11 +1929,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
@@ -1868,11 +1953,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="5" t="s">
         <v>10</v>
       </c>
@@ -1892,11 +1977,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="5" t="s">
         <v>10</v>
       </c>
@@ -1916,11 +2001,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="5" t="s">
         <v>60</v>
       </c>
@@ -1940,11 +2025,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+    <row r="18" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="5" t="s">
         <v>10</v>
       </c>
@@ -1964,11 +2049,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+    <row r="19" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="5" t="s">
         <v>60</v>
       </c>
@@ -1988,11 +2073,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="5" t="s">
         <v>60</v>
       </c>
@@ -2012,11 +2097,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+    <row r="21" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="5" t="s">
         <v>60</v>
       </c>
@@ -2036,11 +2121,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+    <row r="22" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="5" t="s">
         <v>60</v>
       </c>
@@ -2060,11 +2145,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="23"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="5" t="s">
         <v>60</v>
       </c>
@@ -2084,11 +2169,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+    <row r="24" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="5" t="s">
         <v>60</v>
       </c>
@@ -2108,23 +2193,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="32" t="s">
+    <row r="25" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="34"/>
-    </row>
-    <row r="26" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31"/>
+    </row>
+    <row r="26" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="25"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="5" t="s">
         <v>10</v>
       </c>
@@ -2144,11 +2229,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
+    <row r="27" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="5" t="s">
         <v>10</v>
       </c>
@@ -2168,11 +2253,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
+    <row r="28" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="23"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="5" t="s">
         <v>10</v>
       </c>
@@ -2192,11 +2277,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
+    <row r="29" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="23"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="5" t="s">
         <v>10</v>
       </c>
@@ -2216,11 +2301,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
+    <row r="30" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="23"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="5" t="s">
         <v>10</v>
       </c>
@@ -2240,11 +2325,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
+    <row r="31" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="23"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="5" t="s">
         <v>10</v>
       </c>
@@ -2264,11 +2349,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="23"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="5" t="s">
         <v>10</v>
       </c>
@@ -2288,11 +2373,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
+    <row r="33" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="23"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="5" t="s">
         <v>10</v>
       </c>
@@ -2312,11 +2397,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
+    <row r="34" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="23"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="5" t="s">
         <v>10</v>
       </c>
@@ -2336,11 +2421,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
+    <row r="35" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="23"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="5" t="s">
         <v>10</v>
       </c>
@@ -2360,11 +2445,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="24" t="s">
+    <row r="36" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="25"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="5" t="s">
         <v>10</v>
       </c>
@@ -2384,23 +2469,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="32" t="s">
+    <row r="37" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="34"/>
-    </row>
-    <row r="38" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="24" t="s">
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="31"/>
+    </row>
+    <row r="38" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="25"/>
+      <c r="B38" s="22"/>
       <c r="C38" s="5" t="s">
         <v>10</v>
       </c>
@@ -2420,11 +2505,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="22" t="s">
+    <row r="39" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="23"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="5" t="s">
         <v>10</v>
       </c>
@@ -2444,11 +2529,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="22" t="s">
+    <row r="40" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="23"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="5" t="s">
         <v>10</v>
       </c>
@@ -2468,11 +2553,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="22" t="s">
+    <row r="41" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="23"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="5" t="s">
         <v>10</v>
       </c>
@@ -2492,11 +2577,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="22" t="s">
+    <row r="42" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="23"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="5" t="s">
         <v>10</v>
       </c>
@@ -2516,11 +2601,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="22" t="s">
+    <row r="43" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="23"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="5" t="s">
         <v>10</v>
       </c>
@@ -2540,11 +2625,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="22" t="s">
+    <row r="44" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="23"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2564,11 +2649,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="22" t="s">
+    <row r="45" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="23"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="5" t="s">
         <v>10</v>
       </c>
@@ -2588,11 +2673,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="22" t="s">
+    <row r="46" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="23"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="5" t="s">
         <v>10</v>
       </c>
@@ -2612,11 +2697,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="22" t="s">
+    <row r="47" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="23"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="5" t="s">
         <v>10</v>
       </c>
@@ -2636,11 +2721,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="24" t="s">
+    <row r="48" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="25"/>
+      <c r="B48" s="22"/>
       <c r="C48" s="5" t="s">
         <v>10</v>
       </c>
@@ -2660,11 +2745,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="24" t="s">
+    <row r="49" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B49" s="25"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="5" t="s">
         <v>10</v>
       </c>
@@ -2684,11 +2769,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
+    <row r="50" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="23"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="5" t="s">
         <v>10</v>
       </c>
@@ -2708,23 +2793,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="32" t="s">
+    <row r="51" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="34"/>
-    </row>
-    <row r="52" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="24" t="s">
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="31"/>
+    </row>
+    <row r="52" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="25"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="5" t="s">
         <v>61</v>
       </c>
@@ -2744,11 +2829,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="22" t="s">
+    <row r="53" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="23"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="5" t="s">
         <v>61</v>
       </c>
@@ -2768,11 +2853,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="22" t="s">
+    <row r="54" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="23"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="5" t="s">
         <v>61</v>
       </c>
@@ -2792,11 +2877,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="22" t="s">
+    <row r="55" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="23"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="5" t="s">
         <v>61</v>
       </c>
@@ -2816,23 +2901,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="32" t="s">
+    <row r="56" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="34"/>
-    </row>
-    <row r="57" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="24" t="s">
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="31"/>
+    </row>
+    <row r="57" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B57" s="25"/>
+      <c r="B57" s="22"/>
       <c r="C57" s="5" t="s">
         <v>61</v>
       </c>
@@ -2852,11 +2937,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="22" t="s">
+    <row r="58" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="23"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="5" t="s">
         <v>61</v>
       </c>
@@ -2876,11 +2961,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="22" t="s">
+    <row r="59" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="23"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="5" t="s">
         <v>61</v>
       </c>
@@ -2900,23 +2985,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="32" t="s">
+    <row r="60" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="34"/>
-    </row>
-    <row r="61" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="24" t="s">
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="31"/>
+    </row>
+    <row r="61" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="25"/>
+      <c r="B61" s="22"/>
       <c r="C61" s="5" t="s">
         <v>19</v>
       </c>
@@ -2936,11 +3021,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="22" t="s">
+    <row r="62" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="23"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="5" t="s">
         <v>19</v>
       </c>
@@ -2960,11 +3045,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="22" t="s">
+    <row r="63" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B63" s="23"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="5" t="s">
         <v>19</v>
       </c>
@@ -2984,11 +3069,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="24" t="s">
+    <row r="64" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B64" s="25"/>
+      <c r="B64" s="22"/>
       <c r="C64" s="5" t="s">
         <v>19</v>
       </c>
@@ -3008,11 +3093,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="22" t="s">
+    <row r="65" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B65" s="23"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="5" t="s">
         <v>19</v>
       </c>
@@ -3032,11 +3117,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="22" t="s">
+    <row r="66" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B66" s="23"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="5" t="s">
         <v>19</v>
       </c>
@@ -3057,74 +3142,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="A37:H37"/>
+  <mergeCells count="1">
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
